--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Blocks</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>sucking and dmg-ing</t>
+  </si>
+  <si>
+    <t>ion_ore</t>
+  </si>
+  <si>
+    <t>ionizator</t>
+  </si>
+  <si>
+    <t>Ion+cabblestone</t>
+  </si>
+  <si>
+    <t>nausa</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +527,16 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
@@ -547,7 +569,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +614,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +712,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -700,7 +733,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +764,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +789,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,10 +839,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,6 +884,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>Ionization</t>
   </si>
   <si>
-    <t>ionazitation_block</t>
-  </si>
-  <si>
     <t>Custom props</t>
   </si>
   <si>
@@ -105,15 +102,9 @@
     <t>glowing in the dark</t>
   </si>
   <si>
-    <t>ionazited_block</t>
-  </si>
-  <si>
     <t>ion</t>
   </si>
   <si>
-    <t>Ionizatied_ion</t>
-  </si>
-  <si>
     <t>heals</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>nausa</t>
+  </si>
+  <si>
+    <t>Ionized_ion</t>
+  </si>
+  <si>
+    <t>ionazed_block</t>
+  </si>
+  <si>
+    <t>ionized_block</t>
   </si>
 </sst>
 </file>
@@ -210,7 +210,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -488,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,27 +525,27 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
@@ -559,6 +570,9 @@
       <c r="B59" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -569,7 +583,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,12 +610,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +661,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,13 +728,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +803,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,24 +826,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -841,55 +855,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Blocks</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Ionized_ion</t>
-  </si>
-  <si>
-    <t>ionazed_block</t>
   </si>
   <si>
     <t>ionized_block</t>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +834,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -855,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -876,7 +873,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -114,9 +114,6 @@
     <t>Ion</t>
   </si>
   <si>
-    <t>black_hole</t>
-  </si>
-  <si>
     <t>sucking and dmg-ing</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>ionized_block</t>
+  </si>
+  <si>
+    <t>black_hole_block</t>
   </si>
 </sst>
 </file>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,44 +505,72 @@
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C3" si="0">UPPER(A2)</f>
+        <v>AARE_BLOCK</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>AARE_ORE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>UPPER(A4)</f>
+        <v>IONIZATION_BLOCK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ref="C5:C8" si="1">UPPER(A5)</f>
+        <v>IONIZED_BLOCK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>BLACK_HOLE_BLOCK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>ION_ORE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>IONIZATOR</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
@@ -580,7 +608,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,11 +640,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -658,7 +687,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,13 +754,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +829,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,18 +858,18 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +882,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +902,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -881,7 +910,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
@@ -889,18 +918,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\mc_modding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\MC-modding\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC1ED7B-E705-40B9-9121-54D7CDF29752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,28 @@
     <sheet name="Ionization" sheetId="7" r:id="rId7"/>
     <sheet name="Custom props" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Blocks</t>
   </si>
@@ -66,9 +78,6 @@
     <t>Recipes</t>
   </si>
   <si>
-    <t>aree</t>
-  </si>
-  <si>
     <t>-&gt;</t>
   </si>
   <si>
@@ -141,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,10 +502,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +539,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="str">
         <f>UPPER(A4)</f>
@@ -539,7 +548,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:C8" si="1">UPPER(A5)</f>
@@ -548,7 +557,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
@@ -557,7 +566,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
@@ -566,7 +575,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -604,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,12 +644,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -650,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,24 +708,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -735,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -754,13 +763,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -780,7 +789,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,10 +797,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -811,12 +820,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -836,15 +845,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -852,24 +861,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -889,47 +898,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\MC-modding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC1ED7B-E705-40B9-9121-54D7CDF29752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE1F090-BF3C-4D78-8B5B-79E611191722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="str">
@@ -547,7 +547,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="str">
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="str">
@@ -565,7 +565,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="str">
@@ -574,7 +574,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="str">
@@ -695,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\MC-modding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE1F090-BF3C-4D78-8B5B-79E611191722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C5350-88A7-41B0-919C-84F3E474CEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="5160" windowHeight="6795" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Blocks</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>black_hole_block</t>
+  </si>
+  <si>
+    <t>ionized_ion</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -614,42 +617,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" t="str">
+        <f>UPPER(A2)</f>
+        <v>AARE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">UPPER(A3)</f>
+        <v>AARONIC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>SMELTED_AARE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>ION</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>IONIZED_ION</v>
       </c>
     </row>
   </sheetData>
@@ -810,10 +833,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A2"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +854,9 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -835,10 +864,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C4"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,6 +913,9 @@
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -888,10 +923,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B6"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +979,9 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\MC-modding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740C5350-88A7-41B0-919C-84F3E474CEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A486B-7252-4C30-9230-D4FE3F8215A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="5160" windowHeight="6795" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="10245" windowHeight="7800" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Blocks</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>ionized_ion</t>
+  </si>
+  <si>
+    <t>aaronic_multitool</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -685,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -706,7 +709,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\MC-modding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A486B-7252-4C30-9230-D4FE3F8215A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277154F7-70DC-45AA-A8F5-8B3C77A1E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="10245" windowHeight="7800" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="5085" windowHeight="7800" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Blocks</t>
   </si>
@@ -72,9 +72,6 @@
     <t>smelted_aare</t>
   </si>
   <si>
-    <t>-&gt; aare_pickaxe</t>
-  </si>
-  <si>
     <t>Recipes</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>aaronic_multitool</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
   </si>
 </sst>
 </file>
@@ -215,9 +215,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +521,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -544,8 +544,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C4" t="str">
         <f>UPPER(A4)</f>
@@ -553,8 +553,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
+      <c r="A5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ref="C5:C8" si="1">UPPER(A5)</f>
@@ -562,8 +562,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
+      <c r="A6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
@@ -571,8 +571,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
+      <c r="A7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
@@ -580,8 +580,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
+      <c r="A8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
@@ -629,7 +629,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="str">
@@ -661,8 +661,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
+      <c r="A5" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -670,8 +670,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -686,34 +686,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
+      <c r="D2" t="str">
+        <f>UPPER(A2)</f>
+        <v>AARE_PICKAXE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="str">
+        <f>UPPER(A3)</f>
+        <v>AARONIC_MULTITOOL</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -728,8 +738,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>10</v>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,18 +747,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -759,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -770,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -789,13 +799,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -814,8 +824,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,10 +833,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -848,13 +858,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
@@ -879,16 +889,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
+      <c r="A1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -896,24 +906,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
@@ -938,48 +948,48 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
+      <c r="A1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">

--- a/docu_plan.xlsx
+++ b/docu_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\MC-modding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277154F7-70DC-45AA-A8F5-8B3C77A1E8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E237C5AE-7A0A-442D-9DD4-770FC7A17B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="5085" windowHeight="7800" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="14400" windowHeight="7800" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blocks" sheetId="1" r:id="rId1"/>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -731,9 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -771,7 +769,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -782,7 +780,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -793,8 +791,8 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,12 +802,13 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
